--- a/database/temp/group_a.xlsx
+++ b/database/temp/group_a.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -163,27 +163,6 @@
   </si>
   <si>
     <t>DVl8pCYJ6bUSjWs7</t>
-  </si>
-  <si>
-    <t>Ashlee</t>
-  </si>
-  <si>
-    <t>Cross</t>
-  </si>
-  <si>
-    <t>fasteners360@gmail.com</t>
-  </si>
-  <si>
-    <t>KJoiu(*&amp;%23419$$$IUY</t>
-  </si>
-  <si>
-    <t>81.28.96.172:60742</t>
-  </si>
-  <si>
-    <t>3WGWzEabc7tcRQfZ</t>
-  </si>
-  <si>
-    <t>fwaNRX26D4cb9Uf5</t>
   </si>
 </sst>
 </file>
@@ -990,9 +969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1226,29 +1207,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" t="s">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/temp/group_a.xlsx
+++ b/database/temp/group_a.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -163,6 +163,81 @@
   </si>
   <si>
     <t>DVl8pCYJ6bUSjWs7</t>
+  </si>
+  <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Holcomb</t>
+  </si>
+  <si>
+    <t>Courtney.Holcomb.1992@gmail.com</t>
+  </si>
+  <si>
+    <t>J90PAVtH85i1vC2h</t>
+  </si>
+  <si>
+    <t>81.28.96.172:15878</t>
+  </si>
+  <si>
+    <t>Jill</t>
+  </si>
+  <si>
+    <t>Middleton</t>
+  </si>
+  <si>
+    <t>Jill.Middleton.1980@gmail.com</t>
+  </si>
+  <si>
+    <t>QkserjiJNZGdu5WF</t>
+  </si>
+  <si>
+    <t>81.28.96.172:65448</t>
+  </si>
+  <si>
+    <t>Justine</t>
+  </si>
+  <si>
+    <t>Lester</t>
+  </si>
+  <si>
+    <t>Justine.Lester.1981@gmail.com</t>
+  </si>
+  <si>
+    <t>DpzEuqQtJsn0l65F</t>
+  </si>
+  <si>
+    <t>81.28.96.172:5596</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Ola.Hampton.1982@gmail.com</t>
+  </si>
+  <si>
+    <t>kgQdKfc8IHlw1CWO</t>
+  </si>
+  <si>
+    <t>81.28.96.172:65014</t>
+  </si>
+  <si>
+    <t>Earlene</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Earlene.Simon.1983@gmail.com</t>
+  </si>
+  <si>
+    <t>qlrLPymGRdcEZo1h</t>
+  </si>
+  <si>
+    <t>81.28.96.172:3222</t>
   </si>
 </sst>
 </file>
@@ -969,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,6 +1282,121 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
